--- a/biology/Zoologie/John_Cassin/John_Cassin.xlsx
+++ b/biology/Zoologie/John_Cassin/John_Cassin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Cassin est un ornithologue américain, né le 6 septembre 1813 près de la ville de Providence et mort le 10 janvier 1869 à Philadelphie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de fermiers quakers originaires d’Irlande, il fait ses études dans une école quaker qu’ont fréquentée également John Kirk Townsend (1809-1851) et Thomas Say (1787-1834), deux grands naturalistes américains.
 Afin de faire vivre sa famille, il fait de nombreux métiers. Il travaille longtemps dans une imprimerie, spécialisée dans la gravure et la lithographie, la plus importante de Philadelphie avant d’être employé, à partir de la fin des années 1850 par la compagnie des chemins de fer dans ses services de recherches.
@@ -549,10 +563,12 @@
           <t>Classification taxonomique du vivant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1863, Wilson &amp; Cassin présentaient une contribution devant l'Académie des sciences naturelles de Philadelphie dans laquelle ils considéraient l'existence d'un troisième règne du vivant Primalia en supplément des deux règnes Vegetabilia et Animalia créés par Linné dans son Systema Naturae.
-Selon le compte-rendu publié par l'Académie en 1864[1], le règne Primalia était composé de cinq sous-règnes :
+Selon le compte-rendu publié par l'Académie en 1864, le règne Primalia était composé de cinq sous-règnes :
 Règne Primalia
 Sous-règne Algae
 Sous-règne Lichenes
@@ -586,7 +602,9 @@
           <t>Quelques espèces et genres identifiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amphispiza belli (Cassin, 1850) - Bruant de Bell
 Notharchus ordii (Cassin, 1851)
@@ -622,7 +640,9 @@
           <t>Espèces dédiées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aigle de Cassin
 Bruant de Cassin
